--- a/pred_ohlcv/54_21/2019-10-31 CHR ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-31 CHR ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-65216.85516817998</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-133758.95476818</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-87899.66936817998</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>9298.752231820021</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>4125590.38053182</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>4125590.38053182</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>4447937.417731821</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>4446618.55433182</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>4463606.03633182</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>4463587.81663182</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>4467654.70593182</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>4418661.46143182</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>4418661.46143182</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>4420050.81223182</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>4530235.929015029</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>4527411.34161503</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>4519456.44441503</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>4532571.05061503</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>4498566.92671503</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>4338555.92671503</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-31 CHR ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-31 CHR ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-65216.85516817998</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-106436.75636818</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-106459.67046818</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>4125590.38053182</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>4125590.38053182</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>4447937.417731821</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>4473099.267531821</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>4463606.03633182</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>4463587.81663182</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>4467654.70593182</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>4418661.46143182</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>4418661.46143182</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>4416800.890431819</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>4425317.85843182</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>4530235.929015029</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>4527411.34161503</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>4519456.44441503</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>4532571.05061503</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>4498566.92671503</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>4338555.92671503</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
